--- a/data/inputs/saude_esteira/BASE_SAUDE_DA_ESTEIRA.xlsx
+++ b/data/inputs/saude_esteira/BASE_SAUDE_DA_ESTEIRA.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e66243f108409f2/Área de Trabalho/Itaú/CICF/DataCraft/Verificador Inteligente de Obras/codes/construct-cost-ai/data/inputs/saude_esteira/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_AD4D361C20488DEA4E38A076EC1B5A785BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0A08D16-232D-47BB-91D3-30A720B2ED50}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_AD4D361C20488DEA4E38A076EC1B5A785BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F235C80-7625-48C0-99EE-7095B595C9EF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -43,14 +54,52 @@
   </si>
   <si>
     <t>fornecedor</t>
+  </si>
+  <si>
+    <t>S392 - NOVO AUTO ATENDIMENTO</t>
+  </si>
+  <si>
+    <t>Orçamento - Construção e Obras</t>
+  </si>
+  <si>
+    <t>Construtora Gama</t>
+  </si>
+  <si>
+    <t>C379 - AMPLIFIAÇÃO WIFI</t>
+  </si>
+  <si>
+    <t>FG EMPREIT. MAO DE OBRA</t>
+  </si>
+  <si>
+    <t>Construtora Eta</t>
+  </si>
+  <si>
+    <t>Construtora Chi</t>
+  </si>
+  <si>
+    <t>JAPJ CONSTRUCOES CIVIS LTDA</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Orçamento - Executivo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,8 +127,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,6 +156,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,33 +425,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.88671875" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>11584</v>
+      </c>
+      <c r="B2" s="3">
+        <v>188292</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>16326</v>
+      </c>
+      <c r="B3" s="3">
+        <v>105424</v>
+      </c>
+      <c r="C3" s="3">
+        <v>605</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>10843</v>
+      </c>
+      <c r="B4" s="3">
+        <v>188294</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3149</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>16824</v>
+      </c>
+      <c r="B5" s="1">
+        <v>190245</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4003</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>13731</v>
+      </c>
+      <c r="B6" s="1">
+        <v>190244</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4003</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>15080</v>
+      </c>
+      <c r="B7" s="1">
+        <v>190211</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2002</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>19225</v>
+      </c>
+      <c r="B8" s="1">
+        <v>190272</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2002</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>14513</v>
+      </c>
+      <c r="B9" s="3">
+        <v>188292</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>15075</v>
+      </c>
+      <c r="B10" s="3">
+        <v>105424</v>
+      </c>
+      <c r="C10" s="3">
+        <v>605</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>14279</v>
+      </c>
+      <c r="B11" s="3">
+        <v>188294</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3149</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>15647</v>
+      </c>
+      <c r="B12" s="1">
+        <v>190245</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4003</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>13029</v>
+      </c>
+      <c r="B13" s="1">
+        <v>190244</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4003</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>16022</v>
+      </c>
+      <c r="B14" s="1">
+        <v>190211</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2002</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14898</v>
+      </c>
+      <c r="B15" s="1">
+        <v>190272</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2002</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>19178</v>
+      </c>
+      <c r="B16" s="3">
+        <v>188292</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>15387</v>
+      </c>
+      <c r="B17" s="3">
+        <v>105424</v>
+      </c>
+      <c r="C17" s="3">
+        <v>605</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17858</v>
+      </c>
+      <c r="B18" s="3">
+        <v>188294</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3149</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18285</v>
+      </c>
+      <c r="B19" s="1">
+        <v>190245</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4003</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19326</v>
+      </c>
+      <c r="B20" s="1">
+        <v>190244</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4003</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>13504</v>
+      </c>
+      <c r="B21" s="1">
+        <v>190211</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2002</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>16607</v>
+      </c>
+      <c r="B22" s="1">
+        <v>190272</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2002</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/inputs/saude_esteira/BASE_SAUDE_DA_ESTEIRA.xlsx
+++ b/data/inputs/saude_esteira/BASE_SAUDE_DA_ESTEIRA.xlsx
@@ -427,7 +427,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/data/inputs/saude_esteira/BASE_SAUDE_DA_ESTEIRA.xlsx
+++ b/data/inputs/saude_esteira/BASE_SAUDE_DA_ESTEIRA.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e66243f108409f2/Área de Trabalho/Itaú/CICF/DataCraft/Verificador Inteligente de Obras/codes/construct-cost-ai/data/inputs/saude_esteira/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_AD4D361C20488DEA4E38A076EC1B5A785BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F235C80-7625-48C0-99EE-7095B595C9EF}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_AD4D361C20488DEA4E38A076EC1B5A785BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5264A996-6716-4A18-A0DC-3E08CA7CA8DE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="DOCUMENTOS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -427,9 +427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
